--- a/18_routineData.xlsx
+++ b/18_routineData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\test_project\back_end\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anika Tabassum\Desktop\blinkproject_new\backend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B107EE7A-C2E5-4D9E-86F8-2E404B662B6D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5E760B5-A402-4A18-B6AE-500607540B78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Routine Data" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="39">
   <si>
     <t>batch</t>
   </si>
@@ -127,7 +127,16 @@
     <t>23:50</t>
   </si>
   <si>
-    <t>Rafin</t>
+    <t>Anika</t>
+  </si>
+  <si>
+    <t>02:00</t>
+  </si>
+  <si>
+    <t>03:50</t>
+  </si>
+  <si>
+    <t>Communication Lab</t>
   </si>
 </sst>
 </file>
@@ -164,7 +173,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -509,16 +518,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="4" width="8.796875" style="1"/>
+    <col min="3" max="4" width="8.75" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -535,7 +544,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -552,7 +561,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -569,7 +578,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -586,7 +595,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -603,7 +612,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -620,7 +629,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -628,16 +637,16 @@
         <v>19</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="E7" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -654,7 +663,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -671,7 +680,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>5</v>
       </c>
@@ -688,7 +697,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>5</v>
       </c>
@@ -705,7 +714,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>5</v>
       </c>
@@ -722,7 +731,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>5</v>
       </c>
@@ -739,7 +748,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>5</v>
       </c>
@@ -756,7 +765,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>5</v>
       </c>
@@ -773,7 +782,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>5</v>
       </c>
@@ -790,7 +799,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>5</v>
       </c>
@@ -807,7 +816,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>5</v>
       </c>
@@ -824,7 +833,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>5</v>
       </c>
@@ -841,7 +850,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>5</v>
       </c>
@@ -858,7 +867,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>5</v>
       </c>
@@ -875,7 +884,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>5</v>
       </c>
@@ -892,7 +901,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>5</v>
       </c>
@@ -909,7 +918,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>5</v>
       </c>
@@ -926,7 +935,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>5</v>
       </c>
@@ -943,7 +952,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>5</v>
       </c>
@@ -960,7 +969,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>5</v>
       </c>
@@ -977,7 +986,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>5</v>
       </c>
@@ -994,7 +1003,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>5</v>
       </c>
@@ -1011,7 +1020,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>5</v>
       </c>
@@ -1028,7 +1037,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>5</v>
       </c>
@@ -1042,14 +1051,14 @@
         <v>20</v>
       </c>
       <c r="E31" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:E1 A4:E16 A2 E2 A20:E31 A19 C19:E19 A3:B3 D3:E3 A18:E18 A17:B17" numberStoredAsText="1"/>
+    <ignoredError sqref="A1:E1 A4:E6 A2 E2 A20:E30 A19 C19:E19 A3:B3 D3:E3 A18:E18 A17:B17 A8:E16 A7:B7 E7 A31:D31" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>